--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145710.1189707813</v>
+        <v>25174918.69888547</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145710.1189707813</v>
+        <v>25174918.69888547</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7412.436510027328</v>
+        <v>813153.001242332</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7412.436510027328</v>
+        <v>813153.001242332</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188073004.995378</v>
+        <v>47494307.92955419</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8593.951316573735</v>
+        <v>976757.7302266144</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17164.91350720519</v>
+        <v>1948940.624390713</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25735.87569783663</v>
+        <v>2921123.518554812</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34521.30832810215</v>
+        <v>3896528.886935144</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43297.90095836769</v>
+        <v>4870175.095315408</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52074.49358863322</v>
+        <v>5843821.303695671</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60851.08621889976</v>
+        <v>6817467.512076423</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69627.67884916435</v>
+        <v>7791113.720456777</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78392.72489393062</v>
+        <v>8734226.241520775</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86884.41316296185</v>
+        <v>9703659.515812609</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95388.27043940836</v>
+        <v>10675514.42258009</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103680.835283127</v>
+        <v>11643530.5816567</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>111987.9670262221</v>
+        <v>12614445.55370949</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120876.0278390138</v>
+        <v>13530365.57499288</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130176.767989874</v>
+        <v>14399598.74202796</v>
       </c>
     </row>
   </sheetData>
